--- a/records/train_paras.xlsx
+++ b/records/train_paras.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -565,6 +565,44 @@
         <v>0.001</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>my_convnext</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>512</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.3e-05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>AdamW</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>cosine_warm</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>40</v>
+      </c>
+      <c r="J5" t="n">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>

--- a/records/train_paras.xlsx
+++ b/records/train_paras.xlsx
@@ -1,40 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Fudan\毕设\my_codes\records\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08751C59-2E8B-444F-B738-92C706BCBCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+  <si>
+    <t>model type</t>
+  </si>
+  <si>
+    <t>kernel size</t>
+  </si>
+  <si>
+    <t>total depth</t>
+  </si>
+  <si>
+    <t>batch size</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>learning rate</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>cos T</t>
+  </si>
+  <si>
+    <t>weight decay</t>
+  </si>
+  <si>
+    <t>my_convnext</t>
+  </si>
+  <si>
+    <t>AdamW</t>
+  </si>
+  <si>
+    <t>cosine_warm</t>
+  </si>
+  <si>
+    <t>total epochs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final val acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,81 +106,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,219 +390,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="10.9140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.25" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="9.9140625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="11.08203125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="11.33203125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="11.6640625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.58203125" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>model type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>kernel size</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>total depth</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>batch size</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>optimizer</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>learning rate</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>schedule</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>cos T</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>weight decay</t>
-        </is>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>my_convnext</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>256</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>AdamW</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0.00012</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>cosine_warm</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.001</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>512</v>
+      </c>
+      <c r="E2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="F2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>280</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>simple_conv</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>256</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>AdamW</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00012</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>cosine_warm</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>simple_conv</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D3">
         <v>512</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>AdamW</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00012</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>cosine_warm</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>my_convnext</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>512</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.3e-05</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>AdamW</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>cosine_warm</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="E3">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="F3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
         <v>40</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J3">
         <v>280</v>
+      </c>
+      <c r="K3">
+        <v>0.94427083333333328</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/records/train_paras.xlsx
+++ b/records/train_paras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Fudan\毕设\my_codes\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08751C59-2E8B-444F-B738-92C706BCBCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9721A03C-8968-4A21-9780-DC726C1A6B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="59">
   <si>
     <t>model type</t>
   </si>
@@ -34,36 +34,169 @@
     <t>batch size</t>
   </si>
   <si>
+    <t>learning rate</t>
+  </si>
+  <si>
+    <t>weight decay</t>
+  </si>
+  <si>
     <t>optimizer</t>
   </si>
   <si>
-    <t>learning rate</t>
-  </si>
-  <si>
     <t>schedule</t>
   </si>
   <si>
     <t>cos T</t>
   </si>
   <si>
-    <t>weight decay</t>
+    <t>total epochs</t>
+  </si>
+  <si>
+    <t>final val acc</t>
   </si>
   <si>
     <t>my_convnext</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>(1, 1, 1)</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>2e-05</t>
+  </si>
+  <si>
+    <t>0.0005</t>
+  </si>
+  <si>
     <t>AdamW</t>
   </si>
   <si>
     <t>cosine_warm</t>
   </si>
   <si>
-    <t>total epochs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>final val acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>40</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1.2e-05</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>1.5e-05</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>(1, 2, 1)</t>
+  </si>
+  <si>
+    <t>1.3e-05</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.0002</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>0.0007</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>simple_conv</t>
+  </si>
+  <si>
+    <t>0.00012</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>0.00015</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>(1, 2, 2)</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>1e-05</t>
   </si>
 </sst>
 </file>
@@ -391,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -425,92 +558,1320 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>512</v>
-      </c>
-      <c r="E2">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="F2">
-        <v>5.0000000000000001E-4</v>
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>40</v>
-      </c>
-      <c r="J2">
-        <v>280</v>
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>512</v>
-      </c>
-      <c r="E3">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="F3">
-        <v>6.9999999999999999E-4</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
         <v>40</v>
       </c>
-      <c r="J3">
-        <v>280</v>
-      </c>
-      <c r="K3">
-        <v>0.94427083333333328</v>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
